--- a/2. Components/2.1. Cloud Component/2.1.1. Autonomous_Database/2. autonomous_db_tech_owner/4. dml/processes_runtime.xlsx
+++ b/2. Components/2.1. Cloud Component/2.1.1. Autonomous_Database/2. autonomous_db_tech_owner/4. dml/processes_runtime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b26be85664094fc3/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="190" documentId="13_ncr:1_{5FB67045-F761-4388-A2CF-4539C3101894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC204C6E-3D90-4CC3-94D8-DCFA67835B73}"/>
+  <xr:revisionPtr revIDLastSave="192" documentId="13_ncr:1_{5FB67045-F761-4388-A2CF-4539C3101894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1437E4AB-8935-41C5-A725-8F63EE3241B8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4185" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Processes_Catalogue" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t>run_order</t>
   </si>
   <si>
-    <t>start_time</t>
-  </si>
-  <si>
     <t>start_condition</t>
   </si>
   <si>
@@ -577,6 +574,9 @@
   </si>
   <si>
     <t>CHAIN_POPULATION_BINDING_GROUP</t>
+  </si>
+  <si>
+    <t>frequency</t>
   </si>
 </sst>
 </file>
@@ -650,7 +650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -691,21 +691,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -988,13 +977,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
+      <selection pane="bottomLeft" activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,45 +1024,45 @@
         <v>9</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12" t="s">
@@ -1084,10 +1072,10 @@
         <v>999</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2" s="12">
         <v>0</v>
@@ -1102,23 +1090,23 @@
         <v>4</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N2" s="13"/>
       <c r="O2" s="13"/>
       <c r="P2" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
@@ -1128,10 +1116,10 @@
         <v>999</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3" s="12">
         <v>0</v>
@@ -1146,23 +1134,23 @@
         <v>4</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
       <c r="P3" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>26</v>
-      </c>
       <c r="C4" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
@@ -1172,10 +1160,10 @@
         <v>999</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" s="12">
         <v>0</v>
@@ -1190,23 +1178,23 @@
         <v>4</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
       <c r="P4" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>30</v>
-      </c>
       <c r="C5" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
@@ -1216,10 +1204,10 @@
         <v>999</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" s="12">
         <v>0</v>
@@ -1234,23 +1222,23 @@
         <v>4</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
       <c r="P5" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12" t="s">
@@ -1260,10 +1248,10 @@
         <v>999</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="12">
         <v>0</v>
@@ -1278,20 +1266,20 @@
         <v>4</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
       <c r="P6" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>1</v>
@@ -1304,10 +1292,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" s="12">
         <v>0</v>
@@ -1323,22 +1311,22 @@
       </c>
       <c r="M7" s="13"/>
       <c r="N7" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O7" s="13"/>
       <c r="P7" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="20" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="12">
         <v>6</v>
@@ -1350,10 +1338,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" s="12">
         <v>0</v>
@@ -1368,23 +1356,23 @@
         <v>4</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N8" s="13"/>
       <c r="O8" s="13"/>
       <c r="P8" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="20" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="12">
         <v>6</v>
@@ -1396,10 +1384,10 @@
         <v>2</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="12">
         <v>0</v>
@@ -1414,23 +1402,23 @@
         <v>4</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
       <c r="P9" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="20" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="12">
         <v>6</v>
@@ -1442,10 +1430,10 @@
         <v>3</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" s="12">
         <v>0</v>
@@ -1460,23 +1448,23 @@
         <v>4</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
       <c r="P10" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="20" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="12">
         <v>6</v>
@@ -1488,10 +1476,10 @@
         <v>4</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" s="12">
         <v>0</v>
@@ -1506,23 +1494,23 @@
         <v>4</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
       <c r="P11" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="12">
         <v>6</v>
@@ -1534,10 +1522,10 @@
         <v>5</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12" s="12">
         <v>0</v>
@@ -1552,20 +1540,20 @@
         <v>4</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
       <c r="P12" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>1</v>
@@ -1578,10 +1566,10 @@
         <v>2</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13" s="12">
         <v>0</v>
@@ -1597,22 +1585,22 @@
       </c>
       <c r="M13" s="13"/>
       <c r="N13" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O13" s="13"/>
       <c r="P13" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="20" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="12">
         <v>12</v>
@@ -1624,10 +1612,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" s="12">
         <v>0</v>
@@ -1642,23 +1630,23 @@
         <v>4</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
       <c r="P14" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="20" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="12">
         <v>12</v>
@@ -1670,10 +1658,10 @@
         <v>2</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I15" s="12">
         <v>0</v>
@@ -1688,23 +1676,23 @@
         <v>4</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
       <c r="P15" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="20" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="12">
         <v>12</v>
@@ -1716,10 +1704,10 @@
         <v>3</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" s="12">
         <v>0</v>
@@ -1734,23 +1722,23 @@
         <v>4</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
       <c r="P16" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" s="20" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" s="12">
         <v>12</v>
@@ -1762,10 +1750,10 @@
         <v>4</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I17" s="12">
         <v>0</v>
@@ -1780,23 +1768,23 @@
         <v>4</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
       <c r="P17" s="15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" s="20" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="12">
         <v>12</v>
@@ -1808,10 +1796,10 @@
         <v>5</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I18" s="12">
         <v>0</v>
@@ -1826,23 +1814,23 @@
         <v>4</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
       <c r="P18" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="20" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="12">
         <v>12</v>
@@ -1854,10 +1842,10 @@
         <v>6</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I19" s="12">
         <v>0</v>
@@ -1872,20 +1860,20 @@
         <v>4</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
       <c r="P19" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>19</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>1</v>
@@ -1898,10 +1886,10 @@
         <v>3</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I20" s="12">
         <v>0</v>
@@ -1917,22 +1905,22 @@
       </c>
       <c r="M20" s="13"/>
       <c r="N20" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O20" s="13"/>
       <c r="P20" s="15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" s="20" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" s="12">
         <v>19</v>
@@ -1944,41 +1932,41 @@
         <v>1</v>
       </c>
       <c r="G21" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0</v>
+      </c>
+      <c r="J21" s="13">
+        <v>0</v>
+      </c>
+      <c r="K21" s="13">
+        <v>0</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="12">
-        <v>0</v>
-      </c>
-      <c r="J21" s="13">
-        <v>0</v>
-      </c>
-      <c r="K21" s="13">
-        <v>0</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="12" t="s">
-        <v>93</v>
       </c>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
       <c r="P21" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="20" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>21</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="12">
         <v>19</v>
@@ -1990,10 +1978,10 @@
         <v>2</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I22" s="12">
         <v>0</v>
@@ -2008,23 +1996,23 @@
         <v>4</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
       <c r="P22" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" s="20" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" s="12">
         <v>19</v>
@@ -2036,10 +2024,10 @@
         <v>3</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I23" s="12">
         <v>0</v>
@@ -2054,23 +2042,23 @@
         <v>4</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
       <c r="P23" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" s="20" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D24" s="12">
         <v>19</v>
@@ -2082,10 +2070,10 @@
         <v>4</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I24" s="12">
         <v>0</v>
@@ -2100,23 +2088,23 @@
         <v>4</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
       <c r="P24" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" s="20" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>24</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" s="12">
         <v>19</v>
@@ -2128,10 +2116,10 @@
         <v>5</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I25" s="12">
         <v>0</v>
@@ -2146,23 +2134,23 @@
         <v>4</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
       <c r="P25" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" s="20" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>25</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D26" s="12">
         <v>19</v>
@@ -2174,10 +2162,10 @@
         <v>6</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I26" s="12">
         <v>0</v>
@@ -2192,23 +2180,23 @@
         <v>4</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
       <c r="P26" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" s="20" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>26</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" s="12">
         <v>19</v>
@@ -2220,10 +2208,10 @@
         <v>7</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I27" s="12">
         <v>0</v>
@@ -2238,23 +2226,23 @@
         <v>4</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
       <c r="P27" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" s="20" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>27</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28" s="12">
         <v>19</v>
@@ -2266,10 +2254,10 @@
         <v>8</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I28" s="12">
         <v>0</v>
@@ -2284,23 +2272,23 @@
         <v>4</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N28" s="13"/>
       <c r="O28" s="13"/>
       <c r="P28" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" s="20" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D29" s="12">
         <v>19</v>
@@ -2312,10 +2300,10 @@
         <v>9</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I29" s="12">
         <v>0</v>
@@ -2330,23 +2318,23 @@
         <v>4</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N29" s="13"/>
       <c r="O29" s="13"/>
       <c r="P29" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" s="20" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30" s="12">
         <v>19</v>
@@ -2358,10 +2346,10 @@
         <v>10</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I30" s="12">
         <v>0</v>
@@ -2376,23 +2364,23 @@
         <v>4</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
       <c r="P30" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" s="20" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>30</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" s="12">
         <v>19</v>
@@ -2404,10 +2392,10 @@
         <v>11</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I31" s="12">
         <v>0</v>
@@ -2422,23 +2410,23 @@
         <v>4</v>
       </c>
       <c r="M31" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N31" s="13"/>
       <c r="O31" s="13"/>
       <c r="P31" s="12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>31</v>
       </c>
       <c r="B32" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>119</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>120</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="12" t="s">
@@ -2448,10 +2436,10 @@
         <v>4</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I32" s="12">
         <v>0</v>
@@ -2467,22 +2455,22 @@
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O32" s="13"/>
       <c r="P32" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" s="20" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>32</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33" s="12">
         <v>31</v>
@@ -2494,10 +2482,10 @@
         <v>1</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I33" s="12">
         <v>0</v>
@@ -2512,23 +2500,23 @@
         <v>4</v>
       </c>
       <c r="M33" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N33" s="13"/>
       <c r="O33" s="13"/>
       <c r="P33" s="12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" s="20" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>33</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34" s="12">
         <v>31</v>
@@ -2540,10 +2528,10 @@
         <v>2</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I34" s="12">
         <v>0</v>
@@ -2558,23 +2546,23 @@
         <v>4</v>
       </c>
       <c r="M34" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N34" s="13"/>
       <c r="O34" s="13"/>
       <c r="P34" s="12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" s="20" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>34</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D35" s="12">
         <v>31</v>
@@ -2586,10 +2574,10 @@
         <v>3</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I35" s="12">
         <v>0</v>
@@ -2604,23 +2592,23 @@
         <v>4</v>
       </c>
       <c r="M35" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
       <c r="P35" s="12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" s="20" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>35</v>
       </c>
-      <c r="B36" s="21" t="s">
-        <v>125</v>
+      <c r="B36" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D36" s="12">
         <v>31</v>
@@ -2632,10 +2620,10 @@
         <v>4</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I36" s="12">
         <v>0</v>
@@ -2649,24 +2637,24 @@
       <c r="L36" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="M36" s="21" t="s">
-        <v>140</v>
+      <c r="M36" s="16" t="s">
+        <v>139</v>
       </c>
       <c r="N36" s="13"/>
       <c r="O36" s="13"/>
-      <c r="P36" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" s="20" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P36" s="16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>36</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D37" s="12">
         <v>31</v>
@@ -2678,10 +2666,10 @@
         <v>5</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I37" s="12">
         <v>0</v>
@@ -2696,23 +2684,23 @@
         <v>4</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N37" s="13"/>
       <c r="O37" s="13"/>
       <c r="P37" s="12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" s="20" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>37</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D38" s="12">
         <v>31</v>
@@ -2724,10 +2712,10 @@
         <v>6</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I38" s="12">
         <v>0</v>
@@ -2742,23 +2730,23 @@
         <v>4</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N38" s="13"/>
       <c r="O38" s="13"/>
       <c r="P38" s="12" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" s="20" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>38</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D39" s="12">
         <v>31</v>
@@ -2770,10 +2758,10 @@
         <v>7</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I39" s="12">
         <v>0</v>
@@ -2788,23 +2776,23 @@
         <v>4</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N39" s="13"/>
       <c r="O39" s="13"/>
       <c r="P39" s="12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" s="20" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>39</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D40" s="12">
         <v>31</v>
@@ -2816,10 +2804,10 @@
         <v>8</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I40" s="12">
         <v>0</v>
@@ -2834,23 +2822,23 @@
         <v>4</v>
       </c>
       <c r="M40" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N40" s="13"/>
       <c r="O40" s="13"/>
       <c r="P40" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" s="20" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>40</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D41" s="12">
         <v>31</v>
@@ -2862,10 +2850,10 @@
         <v>9</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I41" s="12">
         <v>0</v>
@@ -2880,23 +2868,23 @@
         <v>4</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N41" s="13"/>
       <c r="O41" s="13"/>
       <c r="P41" s="12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" s="20" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>41</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D42" s="12">
         <v>31</v>
@@ -2908,10 +2896,10 @@
         <v>10</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I42" s="12">
         <v>0</v>
@@ -2926,23 +2914,23 @@
         <v>4</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N42" s="13"/>
       <c r="O42" s="13"/>
       <c r="P42" s="12" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" s="20" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>42</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D43" s="12">
         <v>31</v>
@@ -2954,10 +2942,10 @@
         <v>11</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H43" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I43" s="12">
         <v>0</v>
@@ -2972,23 +2960,23 @@
         <v>4</v>
       </c>
       <c r="M43" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N43" s="13"/>
       <c r="O43" s="13"/>
       <c r="P43" s="12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" s="20" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>43</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44" s="12">
         <v>31</v>
@@ -3000,10 +2988,10 @@
         <v>12</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I44" s="12">
         <v>0</v>
@@ -3018,23 +3006,23 @@
         <v>4</v>
       </c>
       <c r="M44" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N44" s="13"/>
       <c r="O44" s="13"/>
       <c r="P44" s="12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" s="20" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>44</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D45" s="12">
         <v>31</v>
@@ -3046,10 +3034,10 @@
         <v>13</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I45" s="12">
         <v>0</v>
@@ -3064,23 +3052,23 @@
         <v>4</v>
       </c>
       <c r="M45" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N45" s="13"/>
       <c r="O45" s="13"/>
       <c r="P45" s="12" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" s="20" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>45</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D46" s="12">
         <v>31</v>
@@ -3092,10 +3080,10 @@
         <v>14</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I46" s="12">
         <v>0</v>
@@ -3110,23 +3098,23 @@
         <v>4</v>
       </c>
       <c r="M46" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N46" s="13"/>
       <c r="O46" s="13"/>
       <c r="P46" s="12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" s="20" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>46</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D47" s="12">
         <v>31</v>
@@ -3138,10 +3126,10 @@
         <v>15</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I47" s="12">
         <v>0</v>
@@ -3156,23 +3144,23 @@
         <v>4</v>
       </c>
       <c r="M47" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N47" s="13"/>
       <c r="O47" s="13"/>
       <c r="P47" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>47</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="12" t="s">
@@ -3182,10 +3170,10 @@
         <v>5</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H48" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I48" s="12">
         <v>0</v>
@@ -3201,22 +3189,22 @@
       </c>
       <c r="M48" s="13"/>
       <c r="N48" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O48" s="13"/>
       <c r="P48" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" s="20" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>48</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D49" s="12">
         <v>47</v>
@@ -3228,10 +3216,10 @@
         <v>1</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I49" s="12">
         <v>0</v>
@@ -3246,23 +3234,23 @@
         <v>4</v>
       </c>
       <c r="M49" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N49" s="13"/>
       <c r="O49" s="13"/>
       <c r="P49" s="12" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" s="20" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>49</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D50" s="12">
         <v>47</v>
@@ -3274,10 +3262,10 @@
         <v>2</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I50" s="12">
         <v>0</v>
@@ -3292,23 +3280,23 @@
         <v>4</v>
       </c>
       <c r="M50" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N50" s="13"/>
       <c r="O50" s="13"/>
       <c r="P50" s="12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" s="20" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>50</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D51" s="12">
         <v>47</v>
@@ -3320,10 +3308,10 @@
         <v>3</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I51" s="12">
         <v>0</v>
@@ -3338,23 +3326,23 @@
         <v>4</v>
       </c>
       <c r="M51" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N51" s="13"/>
       <c r="O51" s="13"/>
       <c r="P51" s="12" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" s="20" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>51</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D52" s="12">
         <v>47</v>
@@ -3366,10 +3354,10 @@
         <v>4</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I52" s="12">
         <v>0</v>
@@ -3384,23 +3372,23 @@
         <v>4</v>
       </c>
       <c r="M52" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N52" s="13"/>
       <c r="O52" s="13"/>
       <c r="P52" s="12" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" s="20" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
         <v>52</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D53" s="12">
         <v>47</v>
@@ -3412,10 +3400,10 @@
         <v>5</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I53" s="12">
         <v>0</v>
@@ -3430,69 +3418,69 @@
         <v>4</v>
       </c>
       <c r="M53" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N53" s="13"/>
       <c r="O53" s="13"/>
       <c r="P53" s="12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" s="20" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="19"/>
-    </row>
-    <row r="55" spans="1:16" s="20" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="19"/>
-    </row>
-    <row r="56" spans="1:16" s="20" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="19"/>
-    </row>
-    <row r="57" spans="1:16" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="8"/>
+    </row>
+    <row r="55" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="8"/>
+    </row>
+    <row r="56" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="8"/>
+    </row>
+    <row r="57" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="6"/>
       <c r="C57" s="10"/>
@@ -3510,10 +3498,10 @@
       <c r="O57" s="6"/>
       <c r="P57" s="8"/>
     </row>
-    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="16"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="10"/>
       <c r="D58" s="10"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
@@ -3528,10 +3516,10 @@
       <c r="O58" s="6"/>
       <c r="P58" s="8"/>
     </row>
-    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="16"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="10"/>
       <c r="D59" s="10"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
@@ -3546,10 +3534,10 @@
       <c r="O59" s="6"/>
       <c r="P59" s="8"/>
     </row>
-    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="16"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="10"/>
       <c r="D60" s="10"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -3564,10 +3552,10 @@
       <c r="O60" s="6"/>
       <c r="P60" s="8"/>
     </row>
-    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="16"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="10"/>
       <c r="D61" s="10"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
@@ -3582,10 +3570,10 @@
       <c r="O61" s="6"/>
       <c r="P61" s="8"/>
     </row>
-    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="16"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="10"/>
       <c r="D62" s="10"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
@@ -3600,10 +3588,10 @@
       <c r="O62" s="6"/>
       <c r="P62" s="8"/>
     </row>
-    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="16"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="10"/>
       <c r="D63" s="10"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
@@ -3618,10 +3606,10 @@
       <c r="O63" s="6"/>
       <c r="P63" s="8"/>
     </row>
-    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="16"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
@@ -3636,10 +3624,10 @@
       <c r="O64" s="6"/>
       <c r="P64" s="8"/>
     </row>
-    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="16"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="10"/>
       <c r="D65" s="10"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
@@ -3654,10 +3642,10 @@
       <c r="O65" s="6"/>
       <c r="P65" s="8"/>
     </row>
-    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="16"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="10"/>
       <c r="D66" s="10"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -3672,10 +3660,10 @@
       <c r="O66" s="6"/>
       <c r="P66" s="8"/>
     </row>
-    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="16"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="10"/>
       <c r="D67" s="10"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
@@ -3690,10 +3678,10 @@
       <c r="O67" s="6"/>
       <c r="P67" s="8"/>
     </row>
-    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="16"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="10"/>
       <c r="D68" s="10"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
@@ -3708,10 +3696,10 @@
       <c r="O68" s="6"/>
       <c r="P68" s="8"/>
     </row>
-    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="16"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="10"/>
       <c r="D69" s="10"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -3726,10 +3714,10 @@
       <c r="O69" s="6"/>
       <c r="P69" s="8"/>
     </row>
-    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="16"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
@@ -3744,10 +3732,10 @@
       <c r="O70" s="6"/>
       <c r="P70" s="8"/>
     </row>
-    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="16"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="10"/>
       <c r="D71" s="10"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
@@ -3762,10 +3750,10 @@
       <c r="O71" s="6"/>
       <c r="P71" s="8"/>
     </row>
-    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="16"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="10"/>
       <c r="D72" s="10"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
@@ -3780,10 +3768,10 @@
       <c r="O72" s="6"/>
       <c r="P72" s="8"/>
     </row>
-    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="16"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="10"/>
       <c r="D73" s="10"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
@@ -3798,10 +3786,10 @@
       <c r="O73" s="6"/>
       <c r="P73" s="8"/>
     </row>
-    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
-      <c r="B74" s="22"/>
-      <c r="C74" s="16"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="10"/>
       <c r="D74" s="10"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
@@ -3816,10 +3804,10 @@
       <c r="O74" s="6"/>
       <c r="P74" s="8"/>
     </row>
-    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="16"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="10"/>
       <c r="D75" s="10"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
@@ -3834,10 +3822,10 @@
       <c r="O75" s="6"/>
       <c r="P75" s="8"/>
     </row>
-    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="16"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="10"/>
       <c r="D76" s="10"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
@@ -3852,10 +3840,10 @@
       <c r="O76" s="6"/>
       <c r="P76" s="8"/>
     </row>
-    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="16"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="10"/>
       <c r="D77" s="10"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
@@ -3870,10 +3858,10 @@
       <c r="O77" s="6"/>
       <c r="P77" s="8"/>
     </row>
-    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="10"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="16"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="10"/>
       <c r="D78" s="10"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
@@ -3888,10 +3876,10 @@
       <c r="O78" s="6"/>
       <c r="P78" s="8"/>
     </row>
-    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="16"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="10"/>
       <c r="D79" s="10"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
@@ -3906,10 +3894,10 @@
       <c r="O79" s="6"/>
       <c r="P79" s="8"/>
     </row>
-    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="16"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="10"/>
       <c r="D80" s="10"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
@@ -3924,10 +3912,10 @@
       <c r="O80" s="6"/>
       <c r="P80" s="8"/>
     </row>
-    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="10"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="16"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="10"/>
       <c r="D81" s="10"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
@@ -3942,10 +3930,10 @@
       <c r="O81" s="6"/>
       <c r="P81" s="8"/>
     </row>
-    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="16"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="10"/>
       <c r="D82" s="10"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
@@ -3960,10 +3948,10 @@
       <c r="O82" s="6"/>
       <c r="P82" s="8"/>
     </row>
-    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="16"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="10"/>
       <c r="D83" s="10"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
@@ -3979,13 +3967,7 @@
       <c r="P83" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P83" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="GROUP"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:P83" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
